--- a/biology/Zoologie/Evippa/Evippa.xlsx
+++ b/biology/Zoologie/Evippa/Evippa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evippa est un genre d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evippa est un genre d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Afrique et en Europe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Afrique et en Europe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 20/11/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 20/11/2023) :
 Evippa aculeata (Kroneberg, 1875)
 Evippa aequalis Alderweireldt, 1991
 Evippa amitaii Armiach Steinpress, Alderweireldt, Cohen, Chipman &amp; Gavish-Regev, 2021
@@ -611,11 +627,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Simon en 1882 dans les Lycosidae.
-Boebe[2] a été placée en synonymie par Simon en 1898[3].
-Evippella[4] a été placé en synonymie par Alderweireldt en 1991[5].
+Boebe a été placée en synonymie par Simon en 1898.
+Evippella a été placé en synonymie par Alderweireldt en 1991.
 </t>
         </is>
       </c>
@@ -644,7 +662,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1882 : « II. Étude sur les arachnides de l'Yemen méridional. Viaggio ad Assab nel Mar Rosso, dei signori G. Doria ed O. Beccari con il R. Aviso "Esploratore" dal 16 novembre 1879 al 26 Febbraio 1880. » Annali del Museo Civico di Storia Naturale di Genova, vol. 18, p. 207-260 (texte intégral).</t>
         </is>
